--- a/data/trans_orig/iP16_n_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C5A7F5-12DD-4603-9C16-47A1BAC898CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D5C483-0C59-4DA6-8D8C-1E648C7A2FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A9A667C-6F17-4902-8225-45D3790A3FCC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC4086A2-7D31-4554-A01B-5C3C790A4EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -104,19 +104,19 @@
     <t>30,89%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
   </si>
   <si>
     <t>32,14%</t>
@@ -125,31 +125,31 @@
     <t>21,6%</t>
   </si>
   <si>
-    <t>44,32%</t>
+    <t>43,67%</t>
   </si>
   <si>
     <t>69,11%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>66,7%</t>
   </si>
   <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>67,86%</t>
   </si>
   <si>
-    <t>55,68%</t>
+    <t>56,33%</t>
   </si>
   <si>
     <t>78,4%</t>
@@ -161,769 +161,769 @@
     <t>42,09%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
   </si>
   <si>
     <t>42,43%</t>
   </si>
   <si>
-    <t>33,57%</t>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>51,98%</t>
   </si>
   <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>72,2%</t>
   </si>
   <si>
     <t>65,24%</t>
   </si>
   <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>26,1%</t>
+    <t>26,2%</t>
   </si>
   <si>
     <t>39,89%</t>
@@ -932,19 +932,19 @@
     <t>33,67%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>66,85%</t>
@@ -953,16 +953,16 @@
     <t>60,11%</t>
   </si>
   <si>
-    <t>73,9%</t>
+    <t>73,8%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED27FE4F-6127-4668-B16C-D1CE7327E2A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21943FD4-6FBF-4FD6-B222-E87EDF65C78A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2145,10 +2145,10 @@
         <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2163,13 @@
         <v>86656</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -2178,13 +2178,13 @@
         <v>77368</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>249</v>
@@ -2193,13 +2193,13 @@
         <v>164024</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,7 +2255,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5341FD96-A823-4DFE-BA12-3331295F26C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77982BE8-54ED-47DE-9DF8-B105DF421FE1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2292,7 +2292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2536,13 +2536,13 @@
         <v>1814</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2551,13 +2551,13 @@
         <v>5053</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2566,13 +2566,13 @@
         <v>6868</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2587,13 @@
         <v>16293</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -2602,13 +2602,13 @@
         <v>18008</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -2617,13 +2617,13 @@
         <v>34300</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2691,13 @@
         <v>14427</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2706,13 +2706,13 @@
         <v>16584</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -2721,13 +2721,13 @@
         <v>31011</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2742,13 @@
         <v>86607</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -2757,13 +2757,13 @@
         <v>71652</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>230</v>
@@ -2772,13 +2772,13 @@
         <v>158259</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2846,13 @@
         <v>5603</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2861,13 +2861,13 @@
         <v>4833</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2876,13 +2876,13 @@
         <v>10436</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2897,13 @@
         <v>33830</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -2912,13 +2912,13 @@
         <v>31571</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>91</v>
@@ -2927,10 +2927,10 @@
         <v>65400</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>147</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3164,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36F68D0-B7AE-4024-9686-94CA7EBBFEB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8ECDAC-6E73-4DB7-A348-F184EF609127}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4033,7 +4033,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4053,7 +4053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9335D47-142D-4D87-904F-B5A273756F20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CBD5A3-4EFA-4A20-9FC8-61DEE2B7F361}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4922,7 +4922,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP16_n_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D5C483-0C59-4DA6-8D8C-1E648C7A2FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD8BFB34-B88C-4472-B375-AA3944E09C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC4086A2-7D31-4554-A01B-5C3C790A4EEA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{47BEE1E1-8325-4D6B-9293-F77AF42D9E58}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,901 +68,874 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>50,89%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>84,87%</t>
   </si>
   <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>90,86%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1347,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21943FD4-6FBF-4FD6-B222-E87EDF65C78A}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C3BEC-B9A0-4647-9B97-09137E3CEE2F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1492,10 +1465,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7342</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1507,81 +1480,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6257</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>13599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>14706</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I5" s="7">
+        <v>14001</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>28706</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,151 +1567,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>6257</v>
+        <v>34240</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I7" s="7">
-        <v>7342</v>
+        <v>36904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="N7" s="7">
-        <v>13599</v>
+        <v>71144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7">
-        <v>14001</v>
+        <v>46467</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I8" s="7">
-        <v>14706</v>
+        <v>50765</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="N8" s="7">
-        <v>28706</v>
+        <v>97232</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,153 +1722,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6354</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
+        <v>20</v>
+      </c>
+      <c r="I10" s="7">
+        <v>14103</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="7">
-        <v>36904</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="7">
-        <v>51</v>
-      </c>
-      <c r="I10" s="7">
-        <v>34240</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>71144</v>
+        <v>20457</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>50765</v>
+        <v>16197</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>46467</v>
+        <v>21163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>97232</v>
+        <v>37359</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,153 +1877,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D13" s="7">
-        <v>14103</v>
+        <v>47937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>6354</v>
+        <v>57263</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="N13" s="7">
-        <v>20457</v>
+        <v>105200</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D14" s="7">
-        <v>21163</v>
+        <v>77368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="I14" s="7">
-        <v>16197</v>
+        <v>85930</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="N14" s="7">
-        <v>37359</v>
+        <v>163298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,216 +2032,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N15" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>84</v>
-      </c>
-      <c r="D16" s="7">
-        <v>57263</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>72</v>
-      </c>
-      <c r="I16" s="7">
-        <v>47937</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>156</v>
-      </c>
-      <c r="N16" s="7">
-        <v>105200</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>131</v>
-      </c>
-      <c r="D17" s="7">
-        <v>86656</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="7">
-        <v>118</v>
-      </c>
-      <c r="I17" s="7">
-        <v>77368</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="7">
-        <v>249</v>
-      </c>
-      <c r="N17" s="7">
-        <v>164024</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2275,8 +2098,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77982BE8-54ED-47DE-9DF8-B105DF421FE1}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF8ECCF-EA84-4E87-A0EC-1114CA62F1A9}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2292,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2393,88 +2216,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5053</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1814</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6868</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18008</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16293</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="N5" s="7">
+        <v>34300</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,147 +2318,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="7">
+        <v>23061</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18107</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="N6" s="7">
+        <v>41168</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>1814</v>
+        <v>16584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>5053</v>
+        <v>14427</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>6868</v>
+        <v>31011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7">
-        <v>16293</v>
+        <v>71652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="I8" s="7">
-        <v>18008</v>
+        <v>86607</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="N8" s="7">
-        <v>34300</v>
+        <v>158259</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,153 +2473,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D9" s="7">
-        <v>18107</v>
+        <v>88236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="I9" s="7">
-        <v>23061</v>
+        <v>101034</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="N9" s="7">
-        <v>41168</v>
+        <v>189270</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>14427</v>
+        <v>4833</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>16584</v>
+        <v>5603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>31011</v>
+        <v>10436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>86607</v>
+        <v>31571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>71652</v>
+        <v>33830</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="N11" s="7">
-        <v>158259</v>
+        <v>65400</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,153 +2628,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>101034</v>
+        <v>36404</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>88236</v>
+        <v>39433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="N12" s="7">
-        <v>189270</v>
+        <v>75836</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>5603</v>
+        <v>26470</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>4833</v>
+        <v>21844</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>10436</v>
+        <v>48315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="D14" s="7">
-        <v>33830</v>
+        <v>121231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="I14" s="7">
-        <v>31571</v>
+        <v>136730</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="N14" s="7">
-        <v>65400</v>
+        <v>257959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,216 +2783,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="D15" s="7">
-        <v>39433</v>
+        <v>147701</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>36404</v>
+        <v>158574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>105</v>
+        <v>436</v>
       </c>
       <c r="N15" s="7">
-        <v>75836</v>
+        <v>306274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7">
-        <v>21844</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26470</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M16" s="7">
-        <v>67</v>
-      </c>
-      <c r="N16" s="7">
-        <v>48315</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>193</v>
-      </c>
-      <c r="D17" s="7">
-        <v>136730</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="7">
-        <v>176</v>
-      </c>
-      <c r="I17" s="7">
-        <v>121231</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="7">
-        <v>369</v>
-      </c>
-      <c r="N17" s="7">
-        <v>257959</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>223</v>
-      </c>
-      <c r="D18" s="7">
-        <v>158574</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>213</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147701</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>436</v>
-      </c>
-      <c r="N18" s="7">
-        <v>306274</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3164,8 +2849,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8ECDAC-6E73-4DB7-A348-F184EF609127}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79952445-FBC2-4129-B4BC-58E95AFD1853}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3181,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3282,88 +2967,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>564</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1401</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1965</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15127</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7385</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="N5" s="7">
+        <v>22512</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,147 +3069,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15691</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8786</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N6" s="7">
+        <v>24477</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>1401</v>
+        <v>11209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>564</v>
+        <v>12958</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>1965</v>
+        <v>24167</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>7385</v>
+        <v>71770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I8" s="7">
-        <v>15127</v>
+        <v>72662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="N8" s="7">
-        <v>22512</v>
+        <v>144432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,153 +3224,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D9" s="7">
-        <v>8786</v>
+        <v>82979</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I9" s="7">
-        <v>15691</v>
+        <v>85620</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="N9" s="7">
-        <v>24477</v>
+        <v>168599</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>12958</v>
+        <v>4216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>11209</v>
+        <v>2638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>24167</v>
+        <v>6855</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>72662</v>
+        <v>24576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>71770</v>
+        <v>26232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>144432</v>
+        <v>50806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,153 +3379,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>85620</v>
+        <v>28792</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>82979</v>
+        <v>28870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>168599</v>
+        <v>57661</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>2638</v>
+        <v>15989</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>4216</v>
+        <v>16998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>6855</v>
+        <v>32987</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="D14" s="7">
-        <v>26232</v>
+        <v>111472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="I14" s="7">
-        <v>24576</v>
+        <v>106278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="N14" s="7">
-        <v>50806</v>
+        <v>217750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,216 +3534,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7">
-        <v>28870</v>
+        <v>127461</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I15" s="7">
-        <v>28792</v>
+        <v>123276</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="N15" s="7">
-        <v>57661</v>
+        <v>250737</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7">
-        <v>16998</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H16" s="7">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7">
-        <v>15989</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M16" s="7">
-        <v>51</v>
-      </c>
-      <c r="N16" s="7">
-        <v>32987</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>153</v>
-      </c>
-      <c r="D17" s="7">
-        <v>106278</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="7">
-        <v>167</v>
-      </c>
-      <c r="I17" s="7">
-        <v>111472</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M17" s="7">
-        <v>320</v>
-      </c>
-      <c r="N17" s="7">
-        <v>217750</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>179</v>
-      </c>
-      <c r="D18" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>371</v>
-      </c>
-      <c r="N18" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4053,8 +3600,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CBD5A3-4EFA-4A20-9FC8-61DEE2B7F361}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EECB8F3-E148-4D3A-B7A1-AD57847F357A}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4070,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4171,88 +3718,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2265</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5456</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7721</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12965</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10211</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="N5" s="7">
+        <v>23176</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,147 +3820,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15667</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30897</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>5403</v>
+        <v>32199</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="I7" s="7">
-        <v>2317</v>
+        <v>41790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>7721</v>
+        <v>73989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7">
-        <v>8963</v>
+        <v>88644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I8" s="7">
-        <v>9499</v>
+        <v>78234</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="N8" s="7">
-        <v>18461</v>
+        <v>166878</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,153 +3975,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D9" s="7">
-        <v>14366</v>
+        <v>120843</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I9" s="7">
-        <v>11816</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>26182</v>
+        <v>240867</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>40301</v>
+        <v>16199</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>32476</v>
+        <v>13959</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>72777</v>
+        <v>30158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>74116</v>
+        <v>25443</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>68765</v>
+        <v>32552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="N11" s="7">
-        <v>142881</v>
+        <v>57995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,153 +4130,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>114417</v>
+        <v>41642</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>101241</v>
+        <v>46511</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="N12" s="7">
-        <v>215658</v>
+        <v>88153</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>13191</v>
+        <v>50663</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I13" s="7">
-        <v>16393</v>
+        <v>61204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="N13" s="7">
-        <v>29584</v>
+        <v>111868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="D14" s="7">
-        <v>30563</v>
+        <v>127052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I14" s="7">
-        <v>24962</v>
+        <v>120997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="N14" s="7">
-        <v>55525</v>
+        <v>248048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,216 +4285,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>43754</v>
+        <v>177715</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="I15" s="7">
-        <v>41355</v>
+        <v>182201</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>85109</v>
+        <v>359916</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>90</v>
-      </c>
-      <c r="D16" s="7">
-        <v>58895</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H16" s="7">
-        <v>82</v>
-      </c>
-      <c r="I16" s="7">
-        <v>51187</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M16" s="7">
-        <v>172</v>
-      </c>
-      <c r="N16" s="7">
-        <v>110082</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>160</v>
-      </c>
-      <c r="D17" s="7">
-        <v>113642</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H17" s="7">
-        <v>144</v>
-      </c>
-      <c r="I17" s="7">
-        <v>103225</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M17" s="7">
-        <v>304</v>
-      </c>
-      <c r="N17" s="7">
-        <v>216866</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>250</v>
-      </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
-      <c r="I18" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>476</v>
-      </c>
-      <c r="N18" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
